--- a/excel/solutions/Date_Functions.xlsx
+++ b/excel/solutions/Date_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/Topics/Data Consolidation and Analysis using Excel/excel_essentials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\ByteSize Trainings\curriculum\excel\solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE8677-DF54-414F-A470-59A88453E022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930AE53-24F8-4E4F-A958-47997E48ED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23715" windowHeight="11040" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATEVALUE" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DATEDIF" sheetId="4" r:id="rId3"/>
     <sheet name="WORKDAY|NETWORKDAYS" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -444,12 +444,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -772,19 +772,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763120B-5EC6-004D-ABAD-52819119A07C}">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
@@ -795,339 +795,437 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <f>DATEVALUE(B2)+C2</f>
+        <v>42547</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D32" si="0">DATEVALUE(B3)+C3</f>
+        <v>42175</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>76</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>44459</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>77</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>42968</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>45009</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
         <v>116</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>41728</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
         <v>65</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>41093</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
         <v>41</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>42936</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>44960</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
         <v>61</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>42523</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
         <v>81</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>43429</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
         <v>111</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>44062</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
         <v>88</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>42147</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
         <v>66</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>42957</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
         <v>116</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>41448</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17">
         <v>45</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>44942</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
         <v>29</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>41482</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19">
         <v>108</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>44090</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20">
         <v>101</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>41184</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21">
         <v>78</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>41880</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22">
         <v>59</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>42278</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23">
         <v>104</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>44079</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24">
         <v>65</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>42194</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25">
         <v>60</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>42383</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27">
         <v>57</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>44954</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28">
         <v>73</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>44782</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
         <v>51</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>43499</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30">
         <v>58</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>44223</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>44576</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32">
         <v>17</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>41492</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EA35FB-A318-1947-8504-A5CE8798AEA6}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1149,14 +1247,14 @@
       <c r="G1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="M1">
+      <c r="K1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>41517</v>
       </c>
@@ -1180,7 +1278,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41970</v>
       </c>
@@ -1203,18 +1301,18 @@
         <v>39.9</v>
       </c>
       <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>_xlfn.CONCAT("Next ",K1," Months")</f>
+        <v>Next 6 Months</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f>_xlfn.CONCAT("Next ",M1," Months")</f>
-        <v>Next 6 Months</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>41585</v>
       </c>
@@ -1236,19 +1334,19 @@
       <c r="G4" s="12">
         <v>75</v>
       </c>
-      <c r="K4" s="1">
+      <c r="I4" s="1">
         <v>41487</v>
       </c>
-      <c r="L4" s="1">
-        <f>EOMONTH(K4,M1)</f>
+      <c r="J4" s="1">
+        <f>EOMONTH(I4,K1)</f>
         <v>41698</v>
       </c>
-      <c r="M4">
-        <f>SUMIFS(D2:D25,A2:A25,"&gt;="&amp;K4,A2:A25,"&lt;="&amp;L4)</f>
+      <c r="K4">
+        <f>SUMIFS(D2:D25,A2:A25,"&gt;="&amp;I4,A2:A25,"&lt;="&amp;J4)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>41792</v>
       </c>
@@ -1271,7 +1369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>41487</v>
       </c>
@@ -1294,7 +1392,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>41957</v>
       </c>
@@ -1317,7 +1415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>41591</v>
       </c>
@@ -1340,7 +1438,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41947</v>
       </c>
@@ -1363,7 +1461,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>41969</v>
       </c>
@@ -1386,7 +1484,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>41828</v>
       </c>
@@ -1409,7 +1507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>41979</v>
       </c>
@@ -1432,7 +1530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>41622</v>
       </c>
@@ -1455,7 +1553,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>41609</v>
       </c>
@@ -1478,7 +1576,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>41954</v>
       </c>
@@ -1501,7 +1599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>41711</v>
       </c>
@@ -1524,7 +1622,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>41306</v>
       </c>
@@ -1547,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>41284</v>
       </c>
@@ -1570,7 +1668,7 @@
         <v>79.95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>41958</v>
       </c>
@@ -1593,7 +1691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>41620</v>
       </c>
@@ -1616,7 +1714,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>41965</v>
       </c>
@@ -1639,7 +1737,7 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>41830</v>
       </c>
@@ -1662,7 +1760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>41635</v>
       </c>
@@ -1685,7 +1783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41545</v>
       </c>
@@ -1708,7 +1806,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>41579</v>
       </c>
@@ -1740,17 +1838,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B78E48-EBCA-5743-902F-04AC1198BF46}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>69</v>
       </c>
@@ -1758,144 +1856,252 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>40262</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>40355</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>DATEDIF(B2,B3,"D")</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>40418</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" ref="C4:C29" si="0">DATEDIF(B3,B4,"D")</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>40623</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>40771</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>40778</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>41336</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>41572</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>41576</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>41606</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>41799</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>41821</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>41848</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>42142</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>42256</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>42524</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>43032</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>43090</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>43274</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>43302</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>43412</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>43435</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>43506</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>43608</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>43813</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>43821</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44138</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44492</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -1910,18 +2116,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4ED94-4BE0-6B47-9BAC-F27BEAE3D54E}">
   <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>32</v>
       </c>
@@ -1938,7 +2144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B4" s="18">
         <v>44927</v>
       </c>
@@ -1951,9 +2157,12 @@
       <c r="G4" s="16">
         <v>44943</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="H4" s="16">
+        <f>WORKDAY(G4,30,B4:B17)</f>
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="18">
         <v>45036</v>
       </c>
@@ -1964,7 +2173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>45037</v>
       </c>
@@ -1975,7 +2184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>45038</v>
       </c>
@@ -1986,7 +2195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>45039</v>
       </c>
@@ -1997,7 +2206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>45104</v>
       </c>
@@ -2008,7 +2217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <v>45105</v>
       </c>
@@ -2019,7 +2228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>45106</v>
       </c>
@@ -2030,7 +2239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <v>45107</v>
       </c>
@@ -2041,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <v>45128</v>
       </c>
@@ -2052,7 +2261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <v>45198</v>
       </c>
@@ -2063,7 +2272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>45261</v>
       </c>
@@ -2074,7 +2283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="18">
         <v>45262</v>
       </c>
@@ -2085,7 +2294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="18">
         <v>45263</v>
       </c>
